--- a/Backend/archivoPartidos.xlsx
+++ b/Backend/archivoPartidos.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="28">
   <si>
     <t xml:space="preserve">Fecha</t>
   </si>
@@ -79,7 +79,7 @@
     <t xml:space="preserve">1-2</t>
   </si>
   <si>
-    <t xml:space="preserve">gol </t>
+    <t xml:space="preserve">gol</t>
   </si>
   <si>
     <t xml:space="preserve">Armando Paredes</t>
@@ -114,11 +114,12 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -134,6 +135,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -178,7 +186,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -188,6 +196,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -208,15 +220,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:M33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
+      <selection pane="topLeft" activeCell="M36" activeCellId="0" sqref="M36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="14.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="14.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="6.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="16.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="16.02"/>
@@ -332,7 +344,7 @@
       <c r="I3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="0" t="s">
         <v>19</v>
       </c>
       <c r="K3" s="2" t="n">
@@ -373,7 +385,7 @@
       <c r="I4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="0" t="s">
         <v>19</v>
       </c>
       <c r="K4" s="2" t="n">
@@ -455,7 +467,7 @@
       <c r="I6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="J6" s="0" t="s">
         <v>19</v>
       </c>
       <c r="K6" s="2" t="n">
@@ -496,7 +508,7 @@
       <c r="I7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J7" s="3" t="s">
         <v>19</v>
       </c>
       <c r="K7" s="2" t="n">
@@ -753,6 +765,826 @@
       </c>
       <c r="M13" s="2" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
+        <v>36924</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>6000</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="J14" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="K14" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="L14" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="M14" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
+        <v>36924</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>6000</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J15" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
+        <v>36924</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>6000</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J16" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="K16" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
+        <v>36924</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>6000</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J17" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="K17" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="n">
+        <v>36924</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>6000</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J18" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="n">
+        <v>36924</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>6000</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K19" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="n">
+        <v>36925</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>6000</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="J20" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K20" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="L20" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="M20" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="n">
+        <v>36925</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="2" t="n">
+        <v>6000</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K21" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="n">
+        <v>36925</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="2" t="n">
+        <v>6000</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K22" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="n">
+        <v>36925</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="2" t="n">
+        <v>6000</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K23" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="n">
+        <v>36925</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" s="2" t="n">
+        <v>6000</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K24" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="n">
+        <v>36925</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" s="2" t="n">
+        <v>6000</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K25" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="n">
+        <v>36925</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>6000</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G26" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I26" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="J26" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="K26" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="L26" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="M26" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="n">
+        <v>36925</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" s="2" t="n">
+        <v>6000</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J27" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="K27" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="n">
+        <v>36925</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" s="2" t="n">
+        <v>6000</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J28" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="K28" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="n">
+        <v>36925</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" s="2" t="n">
+        <v>6000</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J29" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="K29" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="n">
+        <v>36925</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" s="2" t="n">
+        <v>6000</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J30" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="K30" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="n">
+        <v>36925</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D31" s="2" t="n">
+        <v>6000</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K31" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="n">
+        <v>43835</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F32" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H32" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I32" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J32" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="K32" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="L32" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="M32" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="n">
+        <v>43835</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" s="2" t="n">
+        <v>10000</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J33" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="K33" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
